--- a/sourceData/testdata_v7.xlsx
+++ b/sourceData/testdata_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudapg.sharepoint.com/sites/PPAcollaborationCGIAPG/Gedeelde documenten/General/Testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="774" documentId="8_{40F94615-F472-4BE3-AF41-616C2D8C2FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11ACD494-1A95-4AAB-A96E-2E9B92278083}"/>
+  <xr:revisionPtr revIDLastSave="775" documentId="8_{40F94615-F472-4BE3-AF41-616C2D8C2FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6E437C-155D-41F7-B126-7E166A02B083}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2010" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -545,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -641,7 +641,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -747,7 +747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -889,7 +889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,7 +903,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -912,7 +912,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,7 +963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1109,11 +1109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4BA71-5E6B-44EC-897C-77FF06FE4AE8}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -1124,7 +1124,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>151</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
@@ -1434,7 +1434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1442,7 +1442,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>146</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>149</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -1576,7 +1576,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -1585,7 +1585,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -1666,7 +1666,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -1677,7 +1677,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2013,7 +2013,7 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -2021,7 +2021,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -2202,14 +2202,14 @@
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,13 +2312,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE9360-19D5-4D5B-BCA2-6EEEFE106954}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -2329,7 +2329,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -2435,53 +2435,53 @@
         <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -2490,49 +2490,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2549,7 +2526,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2557,7 +2534,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2568,7 +2545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -2579,7 +2556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2590,7 +2567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
@@ -2601,7 +2578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
@@ -2612,7 +2589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -2623,7 +2600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -2634,7 +2611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2645,7 +2622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -2656,7 +2633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2667,7 +2644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
@@ -2691,7 +2668,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -2701,7 +2678,7 @@
     <col min="7" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -2741,7 +2718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -2761,7 +2738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -2781,7 +2758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -2801,7 +2778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -2821,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -2841,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -2861,7 +2838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -2881,7 +2858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2901,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2921,7 +2898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -2955,7 +2932,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -2967,7 +2944,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2993,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3019,7 +2996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -3045,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -3071,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -3097,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -3123,7 +3100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -3149,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -3175,7 +3152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -3201,7 +3178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -3227,7 +3204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -3253,7 +3230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -3279,7 +3256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -3305,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -3331,7 +3308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -3357,7 +3334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -3396,7 +3373,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -3405,7 +3382,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -3439,7 +3416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -3456,7 +3433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -3473,7 +3450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -3490,7 +3467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -3507,7 +3484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -3530,6 +3507,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e95a49da-bf12-4cce-8e32-73416dc73e69">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2b056947-149c-460e-a610-1b844961be42" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3CAB91F24620647B6426E1DE9B940B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="4068bc9fc0acc479e72b4aeb92e0ebb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e95a49da-bf12-4cce-8e32-73416dc73e69" xmlns:ns3="2b056947-149c-460e-a610-1b844961be42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e5f2d9e6ded2f6f70d8955024b63ed9" ns2:_="" ns3:_="">
     <xsd:import namespace="e95a49da-bf12-4cce-8e32-73416dc73e69"/>
@@ -3758,36 +3755,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e95a49da-bf12-4cce-8e32-73416dc73e69">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2b056947-149c-460e-a610-1b844961be42" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D677424-489B-48F3-9A7C-16BA5D526F71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF272AE-8C09-4754-A03D-D0F27E23CE9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10DA07D3-28E2-4812-B961-EAADB854F1AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10DA07D3-28E2-4812-B961-EAADB854F1AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e95a49da-bf12-4cce-8e32-73416dc73e69"/>
+    <ds:schemaRef ds:uri="2b056947-149c-460e-a610-1b844961be42"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF272AE-8C09-4754-A03D-D0F27E23CE9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D677424-489B-48F3-9A7C-16BA5D526F71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e95a49da-bf12-4cce-8e32-73416dc73e69"/>
+    <ds:schemaRef ds:uri="2b056947-149c-460e-a610-1b844961be42"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
